--- a/name_filter_excel/data.xlsx
+++ b/name_filter_excel/data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Moe\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Moe\Desktop\p\Codes\miscellaneous\name_filter_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{428E8DBE-6B78-4B04-AA79-E19EBE2FFA59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E07A5E3-2D6D-405B-B1A8-F729D1DC4E75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>NAME</t>
   </si>
@@ -67,6 +67,36 @@
   </si>
   <si>
     <t>WHITE</t>
+  </si>
+  <si>
+    <t>CODE</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>G1</t>
+  </si>
+  <si>
+    <t>Y1</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>O1</t>
+  </si>
+  <si>
+    <t>W1</t>
+  </si>
+  <si>
+    <t>B2</t>
   </si>
 </sst>
 </file>
@@ -384,15 +414,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -405,8 +435,11 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -416,8 +449,11 @@
       <c r="C2">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -427,8 +463,11 @@
       <c r="D3">
         <v>4665</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -438,8 +477,11 @@
       <c r="C4">
         <v>45</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -449,50 +491,71 @@
       <c r="D5">
         <v>34</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6">
         <v>654</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
       <c r="C7">
         <v>526</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>10</v>
       </c>
       <c r="C8">
         <v>123</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
       <c r="D10">
         <v>54</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
       <c r="C11">
         <v>34</v>
+      </c>
+      <c r="E11" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
